--- a/Documents/Controls.xlsx
+++ b/Documents/Controls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gits\ICT371-Project\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacDataDrive/GIT/ICT371-Project/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5072E8-4069-4150-81B3-D115ECFB5934}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA47AA1-854D-9846-B7CB-94637CC9BBBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="24624" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="460" windowWidth="24620" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,23 +445,23 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -475,7 +475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -489,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -517,7 +517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -531,7 +531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -545,7 +545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
